--- a/日経社説ー春秋/着地点見出した国会の天皇退位論議.xlsx
+++ b/日経社説ー春秋/着地点見出した国会の天皇退位論議.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywu\Desktop\translation\日経社説ー春秋\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,117 +19,131 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>着地点</t>
-  </si>
-  <si>
-    <t>付則</t>
-  </si>
-  <si>
-    <t>明記</t>
-  </si>
-  <si>
-    <t>見出す</t>
-  </si>
-  <si>
-    <t>恣意的</t>
-  </si>
-  <si>
-    <t>末尾</t>
-  </si>
-  <si>
-    <t>宮家</t>
-  </si>
-  <si>
-    <t>提言</t>
-  </si>
-  <si>
-    <t>改元</t>
-  </si>
-  <si>
-    <t>疎通</t>
-  </si>
-  <si>
-    <t>総意</t>
-  </si>
-  <si>
-    <t>ちゃくちてん</t>
-  </si>
-  <si>
-    <t>交渉などで、想定されるべき妥協点。</t>
-  </si>
-  <si>
-    <t>ふそく</t>
-  </si>
-  <si>
-    <t>法令の構成要素のうち、主要事項に付随する必要事項を定めた部分。法令の施行期日・経過措置・関係法令の改廃などを定める。</t>
-  </si>
-  <si>
-    <t>めいき</t>
-  </si>
-  <si>
-    <t>はっきりと書くこと。</t>
-  </si>
-  <si>
-    <t>みいだす</t>
-  </si>
-  <si>
-    <t>見つけ出す。</t>
-  </si>
-  <si>
-    <t>しいてき</t>
-  </si>
-  <si>
-    <t>その時々の思いつきで物事を判断するさま。</t>
-  </si>
-  <si>
-    <t>まつび</t>
-  </si>
-  <si>
-    <t>物事の終わり。末。</t>
-  </si>
-  <si>
-    <t>みやけ</t>
-  </si>
-  <si>
-    <t>宮号を賜った皇族の家。</t>
-  </si>
-  <si>
-    <t>ていげん</t>
-  </si>
-  <si>
-    <t>考え・意見を皆の前に示すこと。また、その考え・意見。</t>
-  </si>
-  <si>
-    <t>かいげん</t>
-  </si>
-  <si>
-    <t>年号を改めること。</t>
-  </si>
-  <si>
-    <t>そつう</t>
-  </si>
-  <si>
-    <t>考えを相手に通じること。</t>
-  </si>
-  <si>
-    <t>そうい</t>
-  </si>
-  <si>
-    <t>全員の意見や意思。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>天皇陛下の退位に向けた法整備をめぐり、衆参両院の正副議長が国会としての提言を安倍晋三首相に天達した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>１月以来の党派の議論を踏まえた内容である。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一代限りの特例法を主張する与党と、皇室典範改正による恒久制度化を求める野党が当初に対立していたが、双方が歩み寄った。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退位を特例法で定めた上で、特例法と典範が「一体をなす」と典範の付則に明記するという。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大きな政治問題としないで国民の多くが納得できそうな着地点を見出した努力を、評価したい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首相はできるかぎり尊重して法案づくりを進めてほしい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特例法と典範の付則という枠組みは、国民を代表する国会が退位をその都度判断できる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>それを通じて、象徴天皇制に対する国民の理解が一層深まる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「典範による天皇継承を定めた憲法２条に違反する」との疑いも払拭される。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退位は例外的措置としながらも、将来の退位の先例にもなりうることも明らかにした形で、妥当だろう。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提言はまた、今回の退位議論に至った事情を特例法に詳細に記すよう求めた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退位の手続きや退位後の継承、待遇も規定すべきだと指摘した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「女性宮家の創設など」について提言は、特例法の施行後に検討すべきだという点で政府と各党派が一致している、と明示した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注目していきたい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府の有識会議は近く再開される。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型連休前後とされる法案提出に向け、詰めなければならない点は数多い。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特に、暮らしに影響の大きい改元の時期に関してはスピード感が必要だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>２０１９年元日が検討されているとされるが、それには様々なシステムやカレンダーなどの手直しが伴う。国会はさらに政府と意思疎通を密にして「国民の総意」づくりに努めてほしい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨夏の陛下の「お言葉」への国民の共感など固有の事情を強調することで、今後、恣意的、強制的な退位につながるのを避ける狙いだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほぼ２００年ぶりとなる退位を円滑に進めるための配慮を重ねており、評価できよう。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「お言葉」の末尾で陛下は、皇室の安定的な持続にも強いお気持ちを滲ませた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ただ、結論を得る時期について思惑の違いは大きい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提言は、付帯決議に盛り込むことも含め合意に向けた努力を各党派に促した。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -158,11 +167,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -220,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,7 +270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,149 +447,145 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="22.5"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="102.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="49.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="67.5">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="45">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="45">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="45">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="45">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="45">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="45">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="45">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="67.5">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="45">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="14" spans="1:1" ht="45">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="45">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="67.5">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="45">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="21" spans="1:1" ht="45">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="22" spans="1:1" ht="45">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="23" spans="1:1" ht="90">
+      <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>